--- a/clustering.xlsx
+++ b/clustering.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkreder/Library/Caches/Transmit/A2491377-378C-4157-8FEC-EF53725B02B1/192.168.1.78/home/gkreder/scripts/PyMetab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkreder/Library/Caches/Transmit/DDC00707-2781-4D5B-A4BF-B67122A7CABD/192.168.1.78/home/gkreder/scripts/PyMetab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D35F3-BA60-824C-953B-975DCA8943B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36C0F3F-0DDC-2244-8B59-B10E69AFC06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{2B4E802A-F725-1847-85BF-4E53BE1B7AE8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{2B4E802A-F725-1847-85BF-4E53BE1B7AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
